--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6685,19 +6685,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -6718,13 +6718,13 @@
         <v>1</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U65">
-        <v>0.3555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,24 +6734,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6792,7 +6792,7 @@
         <v>5</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -6801,28 +6801,28 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>3</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U66">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,12 +6832,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6849,7 +6849,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6890,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>3</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P67">
         <v>3</v>
@@ -6917,10 +6917,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U67">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6930,12 +6930,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7045,7 +7045,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7175,16 +7175,16 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -7193,28 +7193,28 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U70">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7224,24 +7224,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7270,13 +7270,13 @@
         </is>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -7288,31 +7288,31 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U71">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7322,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7377,13 +7377,13 @@
         <v>3</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>3</v>
@@ -7392,25 +7392,25 @@
         <v>3</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U72">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7420,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7469,28 +7469,28 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -7505,10 +7505,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U73">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7518,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7567,13 +7567,13 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7582,31 +7582,31 @@
         <v>5</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U74">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7616,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7671,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7689,22 +7689,22 @@
         <v>3</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U75">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7714,24 +7714,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7769,67 +7769,67 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M76">
         <v>3</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U76">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V76">
         <v>5</v>
       </c>
       <c r="W76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7873,7 +7873,7 @@
         <v>5</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>3</v>
@@ -7897,10 +7897,10 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U77">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7915,19 +7915,19 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7956,31 +7956,31 @@
         </is>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>3</v>
@@ -7995,37 +7995,37 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U78">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V78">
         <v>5</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8123,7 +8123,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8221,7 +8221,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8253,13 +8253,13 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -8271,65 +8271,65 @@
         <v>5</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R81">
         <v>3</v>
       </c>
       <c r="S81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="U81">
-        <v>0.7777777777777778</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V81">
         <v>5</v>
       </c>
       <c r="W81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8348,13 +8348,13 @@
         </is>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -8369,10 +8369,10 @@
         <v>3</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P82">
         <v>5</v>
@@ -8384,50 +8384,50 @@
         <v>4</v>
       </c>
       <c r="S82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U82">
-        <v>0.6666666666666666</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V82">
         <v>5</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8446,19 +8446,19 @@
         </is>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>5</v>
@@ -8470,25 +8470,25 @@
         <v>3</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>3</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U83">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8496,26 +8496,21 @@
       <c r="W83">
         <v>1</v>
       </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8544,19 +8539,19 @@
         </is>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -8565,55 +8560,50 @@
         <v>3</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>3</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S84">
         <v>3</v>
       </c>
       <c r="T84">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U84">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>3</v>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8645,25 +8635,25 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <v>5</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>3</v>
@@ -8681,10 +8671,10 @@
         <v>3</v>
       </c>
       <c r="T85">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="U85">
-        <v>0.6444444444444445</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8692,21 +8682,26 @@
       <c r="W85">
         <v>1</v>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8747,16 +8742,16 @@
         <v>5</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>5</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>3</v>
@@ -8765,19 +8760,19 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U86">
-        <v>0.6444444444444445</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8785,9 +8780,14 @@
       <c r="W86">
         <v>1</v>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -8799,7 +8799,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8831,13 +8831,13 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8858,19 +8858,19 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87">
         <v>3</v>
       </c>
       <c r="T87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U87">
-        <v>0.4444444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8880,24 +8880,24 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8926,43 +8926,43 @@
         </is>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
         <v>2</v>
       </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>1</v>
-      </c>
       <c r="S88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T88">
         <v>22</v>
@@ -8978,12 +8978,12 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -8995,7 +8995,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9024,13 +9024,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -9048,19 +9048,19 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>22</v>
@@ -9076,24 +9076,24 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9122,16 +9122,16 @@
         </is>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>3</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -9140,31 +9140,31 @@
         <v>5</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
         <v>3</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q90">
         <v>3</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S90">
         <v>1</v>
       </c>
       <c r="T90">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U90">
-        <v>0.4888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9174,24 +9174,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -9220,13 +9220,13 @@
         </is>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -9238,13 +9238,13 @@
         <v>5</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P91">
         <v>3</v>
@@ -9259,10 +9259,10 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U91">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9272,24 +9272,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -9327,16 +9327,16 @@
         <v>4</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <v>5</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N92">
         <v>3</v>
@@ -9357,10 +9357,10 @@
         <v>1</v>
       </c>
       <c r="T92">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U92">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9370,24 +9370,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -9416,49 +9416,49 @@
         </is>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O93">
         <v>3</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S93">
         <v>1</v>
       </c>
       <c r="T93">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U93">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9468,24 +9468,24 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9514,13 +9514,13 @@
         </is>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -9529,34 +9529,34 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O94">
         <v>3</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
       <c r="T94">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U94">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -9566,24 +9566,24 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -9612,13 +9612,13 @@
         </is>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -9627,13 +9627,13 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95">
         <v>3</v>
@@ -9648,13 +9648,13 @@
         <v>1</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T95">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U95">
-        <v>0.4888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9664,24 +9664,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Riparian</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9710,13 +9710,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -9725,10 +9725,10 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9746,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T96">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U96">
-        <v>0.5777777777777777</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9762,24 +9762,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9808,13 +9808,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -9823,10 +9823,10 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9847,10 +9847,10 @@
         <v>1</v>
       </c>
       <c r="T97">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U97">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9860,24 +9860,24 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9906,28 +9906,28 @@
         </is>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O98">
         <v>3</v>
@@ -9945,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="T98">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U98">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9958,24 +9958,24 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -10004,13 +10004,13 @@
         </is>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>5</v>
@@ -10025,28 +10025,28 @@
         <v>3</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O99">
         <v>3</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>1</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
       <c r="T99">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U99">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -10056,24 +10056,24 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Tumwater 03</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10105,10 +10105,10 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <v>5</v>
@@ -10141,10 +10141,10 @@
         <v>1</v>
       </c>
       <c r="T100">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U100">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -10154,12 +10154,12 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -10171,7 +10171,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Tumwater 04</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101">
         <v>5</v>
@@ -10221,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -10239,10 +10239,10 @@
         <v>1</v>
       </c>
       <c r="T101">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U101">
-        <v>0.4666666666666667</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V101">
         <v>5</v>
@@ -10252,24 +10252,24 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Tumwater 05</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10301,13 +10301,13 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -10316,10 +10316,10 @@
         <v>5</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O102">
         <v>3</v>
@@ -10337,10 +10337,10 @@
         <v>1</v>
       </c>
       <c r="T102">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="U102">
-        <v>0.4888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V102">
         <v>5</v>
@@ -10350,213 +10350,17 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>3</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-      <c r="J103">
-        <v>5</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103">
-        <v>5</v>
-      </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
-      </c>
-      <c r="S103">
-        <v>1</v>
-      </c>
-      <c r="T103">
-        <v>22</v>
-      </c>
-      <c r="U103">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V103">
-        <v>5</v>
-      </c>
-      <c r="W103">
-        <v>1</v>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
-      </c>
-      <c r="I104">
-        <v>4</v>
-      </c>
-      <c r="J104">
-        <v>5</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104">
-        <v>5</v>
-      </c>
-      <c r="M104">
-        <v>3</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>3</v>
-      </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <v>1</v>
-      </c>
-      <c r="S104">
-        <v>1</v>
-      </c>
-      <c r="T104">
-        <v>26</v>
-      </c>
-      <c r="U104">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V104">
-        <v>5</v>
-      </c>
-      <c r="W104">
-        <v>1</v>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6264,7 +6264,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6302,40 +6302,40 @@
         <v>3</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U61">
-        <v>0.3777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6345,24 +6345,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6460,7 +6460,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -6528,10 +6528,10 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U63">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6541,12 +6541,12 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6599,34 +6599,37 @@
         <v>3</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U64">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6636,34 +6639,34 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6682,49 +6685,46 @@
         </is>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>3</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
       <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U65">
-        <v>0.4222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,24 +6734,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6783,19 +6783,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6816,13 +6816,13 @@
         <v>1</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T66">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U66">
-        <v>0.3555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,24 +6832,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6890,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -6899,28 +6899,28 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>3</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U67">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6930,12 +6930,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6988,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P68">
         <v>3</v>
@@ -7015,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U68">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -7045,7 +7045,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7241,7 +7241,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7273,16 +7273,16 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -7291,28 +7291,28 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U71">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7322,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7368,13 +7368,13 @@
         </is>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -7386,31 +7386,31 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U72">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7420,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7475,13 +7475,13 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>3</v>
@@ -7490,25 +7490,25 @@
         <v>3</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U73">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7518,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7567,28 +7567,28 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -7603,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U74">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7616,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7665,13 +7665,13 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7680,31 +7680,31 @@
         <v>5</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U75">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7714,24 +7714,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7769,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7787,22 +7787,22 @@
         <v>3</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U76">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7812,24 +7812,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7867,67 +7867,67 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M77">
         <v>3</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U77">
-        <v>0.7333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7971,7 +7971,7 @@
         <v>5</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>3</v>
@@ -7995,10 +7995,10 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U78">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -8013,19 +8013,19 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8054,31 +8054,31 @@
         </is>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L79">
         <v>5</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P79">
         <v>3</v>
@@ -8093,37 +8093,37 @@
         <v>1</v>
       </c>
       <c r="T79">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U79">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V79">
         <v>5</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8221,7 +8221,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8319,17 +8319,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8351,13 +8351,13 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -8366,58 +8366,58 @@
         <v>5</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>3</v>
       </c>
       <c r="P82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q82">
         <v>3</v>
       </c>
       <c r="R82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U82">
-        <v>0.7555555555555555</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V82">
         <v>5</v>
       </c>
       <c r="W82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8446,19 +8446,19 @@
         </is>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>5</v>
@@ -8467,50 +8467,55 @@
         <v>3</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q83">
         <v>3</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S83">
         <v>3</v>
       </c>
       <c r="T83">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U83">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8603,7 +8608,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8635,25 +8640,25 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>5</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3</v>
@@ -8671,10 +8676,10 @@
         <v>3</v>
       </c>
       <c r="T85">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U85">
-        <v>0.4444444444444444</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8682,26 +8687,21 @@
       <c r="W85">
         <v>1</v>
       </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8733,46 +8733,46 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
         <v>2</v>
       </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
       <c r="S86">
         <v>3</v>
       </c>
       <c r="T86">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U86">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8782,24 +8782,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8897,7 +8897,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8926,13 +8926,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8947,22 +8947,22 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T88">
         <v>22</v>
@@ -8978,12 +8978,12 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -8995,7 +8995,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9024,13 +9024,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -9045,19 +9045,19 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89">
         <v>1</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>3</v>
       </c>
       <c r="R89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -9076,24 +9076,24 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9125,13 +9125,13 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -9140,13 +9140,13 @@
         <v>5</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>3</v>
@@ -9161,10 +9161,10 @@
         <v>1</v>
       </c>
       <c r="T90">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U90">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9174,24 +9174,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9220,16 +9220,16 @@
         </is>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -9259,10 +9259,10 @@
         <v>1</v>
       </c>
       <c r="T91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U91">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9277,19 +9277,19 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9318,13 +9318,13 @@
         </is>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -9336,7 +9336,7 @@
         <v>5</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N92">
         <v>3</v>
@@ -9357,10 +9357,10 @@
         <v>1</v>
       </c>
       <c r="T92">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U92">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9375,19 +9375,19 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9416,10 +9416,10 @@
         </is>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -9431,34 +9431,34 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M93">
         <v>5</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O93">
         <v>3</v>
       </c>
       <c r="P93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S93">
         <v>1</v>
       </c>
       <c r="T93">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U93">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9468,24 +9468,24 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9583,7 +9583,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -9612,13 +9612,13 @@
         </is>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -9627,13 +9627,13 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O95">
         <v>3</v>
@@ -9648,13 +9648,13 @@
         <v>1</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T95">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U95">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9664,24 +9664,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9725,13 +9725,13 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M96">
         <v>3</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96">
         <v>3</v>
@@ -9749,10 +9749,10 @@
         <v>3</v>
       </c>
       <c r="T96">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U96">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9762,24 +9762,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Riparian</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9844,13 +9844,13 @@
         <v>1</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T97">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U97">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
@@ -9877,7 +9877,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9921,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <v>3</v>
@@ -9945,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="T98">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U98">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9963,19 +9963,19 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10073,7 +10073,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 03</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10105,10 +10105,10 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>5</v>
@@ -10141,10 +10141,10 @@
         <v>1</v>
       </c>
       <c r="T100">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U100">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -10154,12 +10154,12 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -10171,7 +10171,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 04</t>
+          <t>Wenatchee River Tumwater 03</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>3</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101">
         <v>5</v>
@@ -10221,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -10239,10 +10239,10 @@
         <v>1</v>
       </c>
       <c r="T101">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U101">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V101">
         <v>5</v>
@@ -10252,113 +10252,211 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>Wenatchee River Tumwater 04</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>26</v>
+      </c>
+      <c r="U102">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V102">
+        <v>5</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>Wenatchee River Tumwater 05</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>5</v>
-      </c>
-      <c r="I102">
-        <v>3</v>
-      </c>
-      <c r="J102">
-        <v>3</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>5</v>
-      </c>
-      <c r="M102">
-        <v>5</v>
-      </c>
-      <c r="N102">
-        <v>5</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102">
-        <v>1</v>
-      </c>
-      <c r="R102">
-        <v>1</v>
-      </c>
-      <c r="S102">
-        <v>1</v>
-      </c>
-      <c r="T102">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
         <v>27</v>
       </c>
-      <c r="U102">
+      <c r="U103">
         <v>0.6</v>
       </c>
-      <c r="V102">
-        <v>5</v>
-      </c>
-      <c r="W102">
-        <v>1</v>
-      </c>
-      <c r="X102" t="inlineStr">
+      <c r="V103">
+        <v>5</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="inlineStr">
         <is>
           <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr">
+      <c r="Y103" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
+      <c r="Z103" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6302,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6332,10 +6332,10 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U61">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6350,12 +6350,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6783,19 +6783,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6816,13 +6816,13 @@
         <v>1</v>
       </c>
       <c r="S66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U66">
-        <v>0.4222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,24 +6832,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6890,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -6899,28 +6899,28 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>3</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U67">
-        <v>0.3555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6930,12 +6930,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6988,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>3</v>
@@ -7015,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U68">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -7045,7 +7045,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7241,7 +7241,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7273,16 +7273,16 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -7291,28 +7291,28 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U71">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7322,24 +7322,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7368,13 +7368,13 @@
         </is>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -7386,31 +7386,31 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U72">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7420,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7475,13 +7475,13 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73">
         <v>3</v>
@@ -7490,25 +7490,25 @@
         <v>3</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U73">
-        <v>0.5555555555555556</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,24 +7518,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7567,28 +7567,28 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -7603,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U74">
-        <v>0.5111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7616,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7665,13 +7665,13 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7680,31 +7680,31 @@
         <v>5</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="U75">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7714,24 +7714,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7769,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7787,22 +7787,22 @@
         <v>3</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U76">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7812,24 +7812,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7867,67 +7867,67 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>3</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U77">
-        <v>0.4666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7971,7 +7971,7 @@
         <v>5</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M78">
         <v>3</v>
@@ -7995,10 +7995,10 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U78">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -8013,19 +8013,19 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8054,31 +8054,31 @@
         </is>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>5</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P79">
         <v>3</v>
@@ -8093,37 +8093,37 @@
         <v>1</v>
       </c>
       <c r="T79">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="U79">
-        <v>0.7777777777777778</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V79">
         <v>5</v>
       </c>
       <c r="W79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8221,7 +8221,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8319,7 +8319,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8351,13 +8351,13 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -8369,65 +8369,65 @@
         <v>5</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>3</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U82">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V82">
         <v>5</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -8467,10 +8467,10 @@
         <v>3</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>5</v>
@@ -8482,50 +8482,50 @@
         <v>4</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T83">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U83">
-        <v>0.7555555555555555</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -8544,19 +8544,19 @@
         </is>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -8568,25 +8568,25 @@
         <v>3</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q84">
         <v>3</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T84">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U84">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8594,21 +8594,26 @@
       <c r="W84">
         <v>1</v>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8637,19 +8642,19 @@
         </is>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J85">
         <v>5</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <v>5</v>
@@ -8658,50 +8663,55 @@
         <v>3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O85">
         <v>3</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q85">
         <v>3</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S85">
         <v>3</v>
       </c>
       <c r="T85">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U85">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V85">
         <v>5</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8733,25 +8743,25 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>5</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86">
         <v>3</v>
@@ -8769,10 +8779,10 @@
         <v>3</v>
       </c>
       <c r="T86">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U86">
-        <v>0.4444444444444444</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8780,26 +8790,21 @@
       <c r="W86">
         <v>1</v>
       </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8840,16 +8845,16 @@
         <v>5</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
         <v>5</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87">
         <v>3</v>
@@ -8858,19 +8863,19 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S87">
         <v>3</v>
       </c>
       <c r="T87">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="U87">
-        <v>0.4888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8878,14 +8883,9 @@
       <c r="W87">
         <v>1</v>
       </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -8897,7 +8897,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8929,46 +8929,46 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
         <v>2</v>
       </c>
-      <c r="J88">
-        <v>5</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>1</v>
-      </c>
       <c r="S88">
         <v>3</v>
       </c>
       <c r="T88">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U88">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8978,24 +8978,24 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9024,13 +9024,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -9045,22 +9045,22 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P89">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T89">
         <v>22</v>
@@ -9076,12 +9076,12 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -9093,7 +9093,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9122,13 +9122,13 @@
         </is>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -9146,19 +9146,19 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T90">
         <v>22</v>
@@ -9174,24 +9174,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -9220,16 +9220,16 @@
         </is>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -9238,31 +9238,31 @@
         <v>5</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>3</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>3</v>
       </c>
       <c r="R91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S91">
         <v>1</v>
       </c>
       <c r="T91">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U91">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9272,24 +9272,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -9318,13 +9318,13 @@
         </is>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -9336,13 +9336,13 @@
         <v>5</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <v>3</v>
@@ -9357,10 +9357,10 @@
         <v>1</v>
       </c>
       <c r="T92">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U92">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9370,24 +9370,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -9425,16 +9425,16 @@
         <v>4</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <v>5</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N93">
         <v>3</v>
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="T93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U93">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9468,24 +9468,24 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9514,49 +9514,49 @@
         </is>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O94">
         <v>3</v>
       </c>
       <c r="P94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
       <c r="T94">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U94">
-        <v>0.4888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -9566,24 +9566,24 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -9612,13 +9612,13 @@
         </is>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -9627,34 +9627,34 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95">
         <v>3</v>
       </c>
       <c r="P95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S95">
         <v>1</v>
       </c>
       <c r="T95">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U95">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9664,24 +9664,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9710,13 +9710,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -9725,13 +9725,13 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>3</v>
@@ -9746,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T96">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U96">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9762,24 +9762,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9808,13 +9808,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -9823,10 +9823,10 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9844,13 +9844,13 @@
         <v>1</v>
       </c>
       <c r="S97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T97">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U97">
-        <v>0.4666666666666667</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9860,24 +9860,24 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9906,13 +9906,13 @@
         </is>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -9921,10 +9921,10 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -9945,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="T98">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U98">
-        <v>0.4222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9958,24 +9958,24 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10004,28 +10004,28 @@
         </is>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O99">
         <v>3</v>
@@ -10043,10 +10043,10 @@
         <v>1</v>
       </c>
       <c r="T99">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U99">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -10056,24 +10056,24 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10102,13 +10102,13 @@
         </is>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100">
         <v>5</v>
@@ -10123,28 +10123,28 @@
         <v>3</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O100">
         <v>3</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q100">
         <v>1</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>1</v>
       </c>
       <c r="T100">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U100">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -10154,24 +10154,24 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 03</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10203,10 +10203,10 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>5</v>
@@ -10239,10 +10239,10 @@
         <v>1</v>
       </c>
       <c r="T101">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U101">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V101">
         <v>5</v>
@@ -10252,12 +10252,12 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -10269,7 +10269,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 04</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10298,13 +10298,13 @@
         </is>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>5</v>
@@ -10319,7 +10319,7 @@
         <v>3</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O102">
         <v>3</v>
@@ -10337,10 +10337,10 @@
         <v>1</v>
       </c>
       <c r="T102">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U102">
-        <v>0.5777777777777777</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V102">
         <v>5</v>
@@ -10350,24 +10350,24 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 05</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10377,88 +10377,284 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>22</v>
+      </c>
+      <c r="U103">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V103">
+        <v>5</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>22</v>
+      </c>
+      <c r="U104">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V104">
+        <v>5</v>
+      </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>5</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
-      </c>
-      <c r="J103">
-        <v>3</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103">
-        <v>5</v>
-      </c>
-      <c r="M103">
-        <v>5</v>
-      </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
-      </c>
-      <c r="S103">
-        <v>1</v>
-      </c>
-      <c r="T103">
-        <v>27</v>
-      </c>
-      <c r="U103">
-        <v>0.6</v>
-      </c>
-      <c r="V103">
-        <v>5</v>
-      </c>
-      <c r="W103">
-        <v>1</v>
-      </c>
-      <c r="X103" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>26</v>
+      </c>
+      <c r="U105">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V105">
+        <v>5</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105" t="inlineStr">
         <is>
           <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z105"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,17 +492,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 01</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,13 +524,13 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -548,59 +548,56 @@
         <v>5</v>
       </c>
       <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U2">
-        <v>0.6666666666666666</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 02</t>
+          <t>Big Meadow Creek 02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -646,22 +643,19 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -671,7 +665,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -681,14 +675,14 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 03</t>
+          <t>Chewuch River Doe 01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -786,7 +780,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 04</t>
+          <t>Chewuch River Doe 02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -824,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -833,13 +827,13 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -854,16 +848,16 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U5">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V5">
         <v>5</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -872,19 +866,19 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 05</t>
+          <t>Chewuch River Doe 03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -922,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -931,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -943,19 +937,19 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U6">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -965,24 +959,24 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 06</t>
+          <t>Chewuch River Doe 04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1041,25 +1035,25 @@
         <v>5</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7">
-        <v>0.6888888888888889</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V7">
         <v>5</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1068,19 +1062,19 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 07</t>
+          <t>Chewuch River Doe 05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1109,16 +1103,16 @@
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1127,31 +1121,31 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U8">
-        <v>0.5333333333333333</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,24 +1155,24 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Doe 06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1207,16 +1201,16 @@
         </is>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1225,31 +1219,31 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U9">
-        <v>0.5333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,24 +1253,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 09</t>
+          <t>Chewuch River Doe 07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1314,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1335,19 +1329,19 @@
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>5</v>
       </c>
       <c r="T10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U10">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1362,19 +1356,19 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1384,7 +1378,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1403,13 +1397,13 @@
         </is>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1421,31 +1415,31 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U11">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,24 +1449,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Doe 09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1482,7 +1476,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1501,16 +1495,16 @@
         </is>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1519,13 +1513,13 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -1537,13 +1531,13 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U12">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1553,24 +1547,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1608,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1617,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1656,19 +1650,19 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1706,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1715,10 +1709,10 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>5</v>
@@ -1736,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U14">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1749,24 +1743,24 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1795,13 +1789,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1816,28 +1810,28 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U15">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1847,24 +1841,24 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1889,17 +1883,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1920,22 +1914,22 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U16">
-        <v>0.6444444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1950,19 +1944,19 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2009,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -2018,22 +2012,22 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U17">
-        <v>0.5555555555555556</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2043,24 +2037,24 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2085,17 +2079,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2107,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>5</v>
@@ -2128,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U18">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V18">
         <v>5</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2146,19 +2140,19 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2214,22 +2208,22 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U19">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2256,7 +2250,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2285,76 +2279,76 @@
         </is>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
         <v>4</v>
       </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U20">
-        <v>0.5555555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V20">
         <v>5</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2364,7 +2358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2386,78 +2380,83 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>3</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U21">
-        <v>0.7555555555555555</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V21">
         <v>5</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2476,49 +2475,49 @@
         </is>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>3</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U22">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2528,34 +2527,34 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2574,49 +2573,49 @@
         </is>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U23">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2626,34 +2625,34 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2672,25 +2671,25 @@
         </is>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2699,22 +2698,22 @@
         <v>3</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U24">
-        <v>0.6</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2724,34 +2723,34 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2770,76 +2769,71 @@
         </is>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25">
         <v>3</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U25">
-        <v>0.6888888888888889</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V25">
         <v>5</v>
       </c>
       <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2883,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -2904,13 +2898,13 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U26">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2920,12 +2914,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -2937,7 +2931,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2947,7 +2941,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2981,61 +2975,61 @@
         <v>3</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="U27">
-        <v>0.7777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V27">
         <v>5</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3045,7 +3039,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3064,22 +3058,22 @@
         </is>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>3</v>
@@ -3088,25 +3082,25 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
       <c r="T28">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="U28">
-        <v>0.6444444444444445</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3116,24 +3110,24 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3143,7 +3137,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3162,49 +3156,49 @@
         </is>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U29">
-        <v>0.6888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3214,24 +3208,24 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3241,7 +3235,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3260,13 +3254,13 @@
         </is>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -3275,25 +3269,25 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30">
         <v>3</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>3</v>
@@ -3312,24 +3306,24 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3339,7 +3333,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3358,28 +3352,28 @@
         </is>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <v>5</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>5</v>
@@ -3397,10 +3391,10 @@
         <v>3</v>
       </c>
       <c r="T31">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U31">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3408,21 +3402,26 @@
       <c r="W31">
         <v>3</v>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3432,7 +3431,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3454,40 +3453,40 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q32">
         <v>3</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32">
         <v>29</v>
@@ -3503,24 +3502,24 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3530,7 +3529,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3549,31 +3548,31 @@
         </is>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33">
         <v>3</v>
@@ -3585,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U33">
-        <v>0.6444444444444445</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3601,24 +3600,24 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3628,7 +3627,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3647,49 +3646,49 @@
         </is>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U34">
-        <v>0.4222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3699,34 +3698,34 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3754,13 +3753,13 @@
         <v>3</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -3769,62 +3768,57 @@
         <v>3</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35">
         <v>3</v>
       </c>
       <c r="T35">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="U35">
-        <v>0.5111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V35">
         <v>5</v>
       </c>
       <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3846,46 +3840,46 @@
         <v>3</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="U36">
-        <v>0.4222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3895,34 +3889,34 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3941,49 +3935,49 @@
         </is>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="U37">
-        <v>0.4666666666666667</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3993,34 +3987,34 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4039,13 +4033,13 @@
         </is>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -4054,13 +4048,13 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4075,13 +4069,13 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U38">
-        <v>0.5111111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4091,34 +4085,34 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Mad River Lower 04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4137,13 +4131,13 @@
         </is>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -4152,61 +4146,61 @@
         <v>5</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="U39">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V39">
         <v>5</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4216,7 +4210,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4238,19 +4232,19 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -4259,25 +4253,25 @@
         <v>3</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="U40">
-        <v>0.6888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4287,24 +4281,24 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4314,7 +4308,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4333,49 +4327,49 @@
         </is>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U41">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4385,24 +4379,24 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4412,7 +4406,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4431,76 +4425,76 @@
         </is>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U42">
-        <v>0.7111111111111111</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V42">
         <v>5</v>
       </c>
       <c r="W42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4510,7 +4504,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4532,16 +4526,16 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -4553,25 +4547,25 @@
         <v>3</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U43">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4581,24 +4575,24 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4627,49 +4621,49 @@
         </is>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
       <c r="S44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="U44">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4679,24 +4673,24 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4725,31 +4719,31 @@
         </is>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>3</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P45">
         <v>3</v>
@@ -4761,13 +4755,13 @@
         <v>2</v>
       </c>
       <c r="S45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="U45">
-        <v>0.5111111111111111</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4777,24 +4771,24 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4823,31 +4817,31 @@
         </is>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>5</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P46">
         <v>3</v>
@@ -4859,13 +4853,13 @@
         <v>2</v>
       </c>
       <c r="S46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U46">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4875,24 +4869,24 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4921,76 +4915,76 @@
         </is>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U47">
-        <v>0.5111111111111111</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V47">
         <v>5</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5019,49 +5013,49 @@
         </is>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
         <v>2</v>
       </c>
-      <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
       <c r="S48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U48">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5071,24 +5065,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5186,7 +5180,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5196,7 +5190,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5215,49 +5209,49 @@
         </is>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T50">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U50">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5267,24 +5261,24 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5294,7 +5288,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5313,49 +5307,49 @@
         </is>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U51">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5365,24 +5359,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5392,7 +5386,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5420,22 +5414,22 @@
         <v>3</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>3</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -5447,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T52">
         <v>23</v>
@@ -5463,24 +5457,24 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5490,7 +5484,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5509,25 +5503,25 @@
         </is>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>3</v>
@@ -5545,13 +5539,13 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U53">
-        <v>0.5111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5561,24 +5555,24 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5588,7 +5582,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5607,28 +5601,28 @@
         </is>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -5643,13 +5637,13 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T54">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U54">
-        <v>0.5111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5659,34 +5653,34 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River McFarland 01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5708,83 +5702,83 @@
         <v>3</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>3</v>
       </c>
       <c r="N55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T55">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U55">
-        <v>0.7555555555555555</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V55">
         <v>5</v>
       </c>
       <c r="W55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5812,13 +5806,13 @@
         <v>3</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>3</v>
@@ -5830,22 +5824,22 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U56">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5855,34 +5849,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5910,40 +5904,40 @@
         <v>3</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>3</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T57">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U57">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5953,34 +5947,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6008,40 +6002,40 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>3</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U58">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6051,34 +6045,34 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6097,43 +6091,43 @@
         </is>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>1</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T59">
         <v>19</v>
@@ -6149,34 +6143,34 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6195,31 +6189,31 @@
         </is>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -6231,13 +6225,13 @@
         <v>1</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T60">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U60">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6247,24 +6241,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6296,16 +6290,16 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -6314,55 +6308,55 @@
         <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <v>3</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="U61">
-        <v>0.4444444444444444</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V61">
         <v>5</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6400,40 +6394,40 @@
         <v>3</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <v>3</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>1</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U62">
-        <v>0.3777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6443,24 +6437,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6498,40 +6492,40 @@
         <v>3</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U63">
-        <v>0.3777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6541,24 +6535,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6596,16 +6590,16 @@
         <v>3</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -6614,22 +6608,22 @@
         <v>1</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U64">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6639,24 +6633,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6687,44 +6681,44 @@
       <c r="G65">
         <v>3</v>
       </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
         <v>3</v>
       </c>
       <c r="R65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U65">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6734,34 +6728,34 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6795,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6807,22 +6801,22 @@
         <v>3</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U66">
-        <v>0.3555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6832,12 +6826,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6849,17 +6843,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6890,37 +6884,37 @@
         <v>5</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>3</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U67">
-        <v>0.4666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6930,12 +6924,12 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -6947,17 +6941,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6976,37 +6970,37 @@
         </is>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68">
         <v>1</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
         <v>2</v>
@@ -7015,10 +7009,10 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U68">
-        <v>0.3777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7028,34 +7022,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7074,40 +7068,40 @@
         </is>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -7126,34 +7120,34 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7172,40 +7166,40 @@
         </is>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -7224,34 +7218,34 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7270,22 +7264,22 @@
         </is>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
         <v>3</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -7294,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -7322,12 +7316,12 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -7339,17 +7333,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7383,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M72">
         <v>3</v>
@@ -7392,14 +7386,11 @@
         <v>3</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>3</v>
       </c>
-      <c r="Q72">
-        <v>3</v>
-      </c>
       <c r="R72">
         <v>3</v>
       </c>
@@ -7407,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U72">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7420,24 +7411,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7466,13 +7457,13 @@
         </is>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <v>5</v>
@@ -7481,13 +7472,13 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <v>3</v>
@@ -7505,10 +7496,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="U73">
-        <v>0.5111111111111111</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7518,12 +7509,12 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -7535,7 +7526,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7564,49 +7555,49 @@
         </is>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S74">
         <v>1</v>
       </c>
       <c r="T74">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U74">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7616,24 +7607,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7662,13 +7653,13 @@
         </is>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -7677,16 +7668,16 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>3</v>
@@ -7701,10 +7692,10 @@
         <v>1</v>
       </c>
       <c r="T75">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="U75">
-        <v>0.5333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7714,24 +7705,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7760,49 +7751,49 @@
         </is>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U76">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7812,24 +7803,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7839,7 +7830,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7858,76 +7849,76 @@
         </is>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>5</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P77">
         <v>3</v>
       </c>
       <c r="Q77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="U77">
-        <v>0.7333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7937,7 +7928,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7956,76 +7947,76 @@
         </is>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S78">
         <v>1</v>
       </c>
       <c r="T78">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="U78">
-        <v>0.7777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V78">
         <v>5</v>
       </c>
       <c r="W78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8035,7 +8026,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8054,31 +8045,31 @@
         </is>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79">
         <v>3</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P79">
         <v>3</v>
@@ -8093,10 +8084,10 @@
         <v>1</v>
       </c>
       <c r="T79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U79">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -8106,24 +8097,24 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8133,7 +8124,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8152,49 +8143,49 @@
         </is>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80">
         <v>3</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U80">
-        <v>0.5777777777777777</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -8204,24 +8195,24 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8231,7 +8222,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8250,10 +8241,10 @@
         </is>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>4</v>
@@ -8265,34 +8256,34 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>1</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>1</v>
       </c>
       <c r="T81">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U81">
-        <v>0.5777777777777777</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -8302,24 +8293,24 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8329,7 +8320,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8348,13 +8339,13 @@
         </is>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -8363,61 +8354,61 @@
         <v>1</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q82">
         <v>1</v>
       </c>
       <c r="R82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="U82">
-        <v>0.7777777777777778</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V82">
         <v>5</v>
       </c>
       <c r="W82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8427,7 +8418,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8455,7 +8446,7 @@
         <v>3</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -8467,28 +8458,28 @@
         <v>3</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U83">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8498,24 +8489,24 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8556,74 +8547,74 @@
         <v>5</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M84">
         <v>3</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q84">
         <v>3</v>
       </c>
       <c r="R84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U84">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8642,19 +8633,19 @@
         </is>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J85">
         <v>5</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L85">
         <v>5</v>
@@ -8666,25 +8657,25 @@
         <v>5</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q85">
         <v>3</v>
       </c>
       <c r="R85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U85">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8694,34 +8685,34 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8740,49 +8731,49 @@
         </is>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>5</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q86">
         <v>3</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U86">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8790,31 +8781,36 @@
       <c r="W86">
         <v>1</v>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -8833,49 +8829,49 @@
         </is>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>5</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q87">
         <v>3</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U87">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8883,31 +8879,36 @@
       <c r="W87">
         <v>1</v>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8926,13 +8927,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -8944,7 +8945,7 @@
         <v>5</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -8953,22 +8954,22 @@
         <v>3</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q88">
         <v>3</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U88">
-        <v>0.4444444444444444</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8978,34 +8979,34 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -9024,13 +9025,13 @@
         </is>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -9042,68 +9043,68 @@
         <v>5</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q89">
         <v>1</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S89">
         <v>3</v>
       </c>
       <c r="T89">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="U89">
-        <v>0.4888888888888889</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V89">
         <v>5</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9122,13 +9123,13 @@
         </is>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -9140,31 +9141,31 @@
         <v>5</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T90">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U90">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9174,34 +9175,34 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -9238,7 +9239,7 @@
         <v>5</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <v>3</v>
@@ -9247,22 +9248,22 @@
         <v>1</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q91">
         <v>3</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T91">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U91">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9272,24 +9273,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9321,46 +9322,46 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>5</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>5</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
         <v>4</v>
       </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>5</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>3</v>
-      </c>
-      <c r="Q92">
-        <v>3</v>
-      </c>
-      <c r="R92">
-        <v>3</v>
-      </c>
       <c r="S92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T92">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="U92">
-        <v>0.4888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9370,24 +9371,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9416,22 +9417,22 @@
         </is>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93">
         <v>3</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>3</v>
@@ -9443,22 +9444,22 @@
         <v>3</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <v>3</v>
       </c>
       <c r="R93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T93">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U93">
-        <v>0.6222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9468,24 +9469,24 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9514,22 +9515,22 @@
         </is>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>3</v>
@@ -9541,16 +9542,16 @@
         <v>3</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <v>3</v>
       </c>
       <c r="R94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T94">
         <v>25</v>
@@ -9566,24 +9567,24 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9615,46 +9616,46 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>3</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
         <v>2</v>
       </c>
-      <c r="J95">
-        <v>5</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>5</v>
-      </c>
-      <c r="M95">
-        <v>3</v>
-      </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
-      <c r="O95">
-        <v>3</v>
-      </c>
-      <c r="P95">
-        <v>3</v>
-      </c>
-      <c r="Q95">
-        <v>3</v>
-      </c>
-      <c r="R95">
-        <v>3</v>
-      </c>
       <c r="S95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T95">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U95">
-        <v>0.5777777777777777</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9664,24 +9665,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9691,7 +9692,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9710,13 +9711,13 @@
         </is>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -9728,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9746,13 +9747,13 @@
         <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T96">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U96">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9762,24 +9763,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9789,7 +9790,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9808,13 +9809,13 @@
         </is>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -9823,10 +9824,10 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9844,13 +9845,13 @@
         <v>1</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T97">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="U97">
-        <v>0.5777777777777777</v>
+        <v>0.4</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9860,24 +9861,24 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9887,7 +9888,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9909,10 +9910,10 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -9924,31 +9925,31 @@
         <v>1</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P98">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S98">
         <v>1</v>
       </c>
       <c r="T98">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U98">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9958,24 +9959,24 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9985,7 +9986,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10007,13 +10008,13 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -10022,31 +10023,31 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
       <c r="T99">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U99">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -10056,24 +10057,24 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10083,7 +10084,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10111,13 +10112,13 @@
         <v>4</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>3</v>
@@ -10132,19 +10133,19 @@
         <v>3</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S100">
         <v>1</v>
       </c>
       <c r="T100">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U100">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -10154,24 +10155,24 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10181,7 +10182,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10200,40 +10201,40 @@
         </is>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <v>3</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101">
         <v>3</v>
       </c>
       <c r="P101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -10252,24 +10253,24 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10279,7 +10280,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10301,10 +10302,10 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102">
         <v>5</v>
@@ -10313,34 +10314,34 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <v>3</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O102">
         <v>3</v>
       </c>
       <c r="P102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S102">
         <v>1</v>
       </c>
       <c r="T102">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U102">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V102">
         <v>5</v>
@@ -10350,24 +10351,24 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10377,7 +10378,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -10396,13 +10397,13 @@
         </is>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J103">
         <v>5</v>
@@ -10411,10 +10412,10 @@
         <v>1</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -10448,24 +10449,24 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10475,7 +10476,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -10494,13 +10495,13 @@
         </is>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -10509,10 +10510,10 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -10533,10 +10534,10 @@
         <v>1</v>
       </c>
       <c r="T104">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U104">
-        <v>0.4888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V104">
         <v>5</v>
@@ -10551,19 +10552,19 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10573,7 +10574,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -10592,10 +10593,10 @@
         </is>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -10607,13 +10608,13 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <v>3</v>
@@ -10631,10 +10632,10 @@
         <v>1</v>
       </c>
       <c r="T105">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U105">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V105">
         <v>5</v>
@@ -10644,17 +10645,899 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 04</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106">
+        <v>3</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>25</v>
+      </c>
+      <c r="U106">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V106">
+        <v>5</v>
+      </c>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 05</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>27</v>
+      </c>
+      <c r="U107">
+        <v>0.6</v>
+      </c>
+      <c r="V107">
+        <v>5</v>
+      </c>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
           <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr">
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 06</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <v>5</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>3</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>25</v>
+      </c>
+      <c r="U108">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V108">
+        <v>5</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Wenatchee River Nahahum 07</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>5</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>19</v>
+      </c>
+      <c r="U109">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="V109">
+        <v>5</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 01</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>3</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>19</v>
+      </c>
+      <c r="U110">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="V110">
+        <v>5</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 02</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>20</v>
+      </c>
+      <c r="U111">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V111">
+        <v>5</v>
+      </c>
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>18</v>
+      </c>
+      <c r="U112">
+        <v>0.4</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>3</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>22</v>
+      </c>
+      <c r="U113">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V113">
+        <v>5</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
         <is>
           <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 02</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114">
+        <v>3</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>23</v>
+      </c>
+      <c r="U114">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="V114">
+        <v>5</v>
+      </c>
+      <c r="W114">
+        <v>1</v>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z114"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,12 +435,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Riparian-Disturbance_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -547,7 +547,7 @@
       <c r="O2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
@@ -642,7 +642,7 @@
       <c r="O3">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -738,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -836,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -934,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1032,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1124,16 +1124,16 @@
         <v>5</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>3</v>
@@ -1142,20 +1142,20 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U8">
-        <v>0.6444444444444445</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V8">
         <v>5</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1228,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9">
         <v>3</v>
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1338,10 +1338,10 @@
         <v>5</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U10">
-        <v>0.5333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -1436,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="T11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U11">
-        <v>0.5333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1525,19 +1525,19 @@
         <v>3</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>5</v>
       </c>
       <c r="T12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U12">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1614,28 +1614,28 @@
         <v>5</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U13">
-        <v>0.5777777777777777</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1712,28 +1712,28 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U14">
-        <v>0.5777777777777777</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1810,16 +1810,16 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>5</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>2</v>
@@ -1828,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U15">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -1914,10 +1914,10 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>4</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G18">
@@ -2110,10 +2110,10 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2208,10 +2208,10 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>2</v>
@@ -2306,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -2404,10 +2404,10 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21">
         <v>3</v>
@@ -2502,10 +2502,10 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -2600,22 +2600,22 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U23">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2710,10 +2710,10 @@
         <v>5</v>
       </c>
       <c r="T24">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U24">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -2892,19 +2892,19 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U26">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2914,12 +2914,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>3</v>
@@ -2990,19 +2990,19 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U27">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3012,12 +3012,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <v>3</v>
@@ -3088,19 +3088,19 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
       <c r="T28">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U28">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3186,19 +3186,19 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U29">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3284,19 +3284,19 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30">
         <v>3</v>
       </c>
       <c r="T30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U30">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3323,7 +3323,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3352,13 +3352,13 @@
         </is>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -3367,34 +3367,34 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <v>5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U31">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3402,26 +3402,21 @@
       <c r="W31">
         <v>3</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3462,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -3471,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
         <v>5</v>
@@ -3489,37 +3484,32 @@
         <v>3</v>
       </c>
       <c r="T32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U32">
-        <v>0.6444444444444445</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V32">
         <v>5</v>
       </c>
       <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3529,7 +3519,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3560,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>3</v>
@@ -3569,28 +3559,28 @@
         <v>3</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33">
         <v>3</v>
       </c>
       <c r="T33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U33">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3598,26 +3588,21 @@
       <c r="W33">
         <v>1</v>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels</t>
-        </is>
-      </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3658,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -3667,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34">
         <v>3</v>
@@ -3685,37 +3670,32 @@
         <v>3</v>
       </c>
       <c r="T34">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U34">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V34">
         <v>5</v>
       </c>
       <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3747,68 +3727,73 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35">
         <v>3</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <v>3</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U35">
-        <v>0.7333333333333333</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V35">
         <v>5</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3837,13 +3822,13 @@
         </is>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -3858,28 +3843,28 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36">
         <v>3</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S36">
         <v>5</v>
       </c>
       <c r="T36">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U36">
-        <v>0.6444444444444445</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3889,12 +3874,12 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -3906,7 +3891,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3916,7 +3901,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3935,16 +3920,16 @@
         </is>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3953,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -3962,22 +3947,22 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S37">
         <v>5</v>
       </c>
       <c r="T37">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U37">
-        <v>0.6444444444444445</v>
+        <v>0.4</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3987,34 +3972,34 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4033,13 +4018,13 @@
         </is>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -4048,13 +4033,13 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4069,13 +4054,13 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U38">
-        <v>0.3777777777777778</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4085,34 +4070,34 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mad River Lower 04</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4131,76 +4116,76 @@
         </is>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="U39">
-        <v>0.7777777777777778</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V39">
         <v>5</v>
       </c>
       <c r="W39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4265,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U40">
-        <v>0.4222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4281,12 +4266,12 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -4298,7 +4283,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4348,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4363,13 +4348,13 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="U41">
-        <v>0.3333333333333333</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4379,12 +4364,12 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -4396,7 +4381,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4406,7 +4391,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4428,16 +4413,16 @@
         <v>3</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -4449,25 +4434,25 @@
         <v>3</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="U42">
-        <v>0.3777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4477,24 +4462,24 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4504,7 +4489,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4526,19 +4511,19 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -4547,25 +4532,25 @@
         <v>3</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="U43">
-        <v>0.4222222222222222</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4575,24 +4560,24 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4621,10 +4606,10 @@
         </is>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -4633,37 +4618,37 @@
         <v>5</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
         <v>5</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U44">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4673,24 +4658,24 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4734,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>3</v>
@@ -4743,25 +4728,25 @@
         <v>3</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U45">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4771,24 +4756,24 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4817,49 +4802,49 @@
         </is>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>5</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R46">
         <v>2</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U46">
-        <v>0.6</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4869,24 +4854,24 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Riparian</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4915,76 +4900,76 @@
         </is>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>3</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>3</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U47">
-        <v>0.7111111111111111</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V47">
         <v>5</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5013,49 +4998,49 @@
         </is>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>5</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>3</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R48">
         <v>2</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U48">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5065,24 +5050,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5111,13 +5096,13 @@
         </is>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -5129,13 +5114,13 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -5150,10 +5135,10 @@
         <v>5</v>
       </c>
       <c r="T49">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U49">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -5163,12 +5148,12 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -5180,7 +5165,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5205,7 +5190,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G50">
@@ -5224,34 +5209,34 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>5</v>
       </c>
       <c r="T50">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U50">
-        <v>0.5111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5261,12 +5246,12 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -5278,7 +5263,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5328,28 +5313,28 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>5</v>
       </c>
       <c r="T51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U51">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5359,12 +5344,12 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -5376,7 +5361,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River McFarland 01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5386,7 +5371,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5414,7 +5399,7 @@
         <v>3</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5426,10 +5411,10 @@
         <v>3</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -5441,13 +5426,13 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U52">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5457,24 +5442,24 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5484,7 +5469,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5503,16 +5488,16 @@
         </is>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5521,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <v>3</v>
@@ -5539,13 +5524,13 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U53">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5555,24 +5540,24 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5582,7 +5567,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5601,16 +5586,16 @@
         </is>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5619,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -5637,13 +5622,13 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U54">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5653,24 +5638,24 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River McFarland 01</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5768,7 +5753,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5818,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -5836,10 +5821,10 @@
         <v>3</v>
       </c>
       <c r="T56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U56">
-        <v>0.3777777777777778</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5849,12 +5834,12 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -5866,7 +5851,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5910,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M57">
         <v>3</v>
@@ -5934,10 +5919,10 @@
         <v>3</v>
       </c>
       <c r="T57">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U57">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5947,7 +5932,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -5957,24 +5942,24 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6002,13 +5987,13 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>3</v>
@@ -6020,22 +6005,22 @@
         <v>1</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U58">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6045,34 +6030,34 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6100,13 +6085,13 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <v>3</v>
@@ -6118,22 +6103,22 @@
         <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U59">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6143,34 +6128,34 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6198,13 +6183,13 @@
         <v>3</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>3</v>
@@ -6216,22 +6201,22 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U60">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6241,24 +6226,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6290,16 +6275,16 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>5</v>
       </c>
       <c r="K61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -6308,10 +6293,10 @@
         <v>3</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>3</v>
@@ -6326,37 +6311,37 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U61">
-        <v>0.7555555555555555</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V61">
         <v>5</v>
       </c>
       <c r="W61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6387,9 +6372,6 @@
       <c r="G62">
         <v>3</v>
       </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
       <c r="I62">
         <v>3</v>
       </c>
@@ -6403,7 +6385,7 @@
         <v>3</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -6424,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U62">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6437,12 +6419,12 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -6454,7 +6436,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6483,49 +6465,49 @@
         </is>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>3</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U63">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6535,12 +6517,12 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -6552,7 +6534,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6581,49 +6563,49 @@
         </is>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>5</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>3</v>
       </c>
       <c r="R64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U64">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6633,12 +6615,12 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -6650,7 +6632,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6681,11 +6663,14 @@
       <c r="G65">
         <v>3</v>
       </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6694,7 +6679,7 @@
         <v>3</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -6703,10 +6688,10 @@
         <v>1</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <v>2</v>
@@ -6728,24 +6713,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6774,16 +6759,16 @@
         </is>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6792,31 +6777,31 @@
         <v>3</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66">
         <v>3</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U66">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6826,24 +6811,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6872,16 +6857,16 @@
         </is>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6890,10 +6875,10 @@
         <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>3</v>
@@ -6911,10 +6896,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U67">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6924,24 +6909,24 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6982,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>3</v>
@@ -6991,28 +6976,28 @@
         <v>3</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P68">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U68">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7022,12 +7007,12 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -7039,7 +7024,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7080,37 +7065,34 @@
         <v>3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
       <c r="Q69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="U69">
-        <v>0.3777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7120,34 +7102,34 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7166,22 +7148,22 @@
         </is>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -7205,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U70">
-        <v>0.3777777777777778</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7218,34 +7200,34 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7264,49 +7246,49 @@
         </is>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="U71">
-        <v>0.3333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7316,34 +7298,34 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7362,46 +7344,49 @@
         </is>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>3</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
         <v>3</v>
       </c>
       <c r="R72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U72">
-        <v>0.6</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7411,24 +7396,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7478,28 +7463,28 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U73">
-        <v>0.3555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7509,12 +7494,12 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -7526,7 +7511,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7567,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -7579,13 +7564,13 @@
         <v>3</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74">
         <v>2</v>
@@ -7594,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U74">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7607,12 +7592,12 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -7624,7 +7609,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7656,16 +7641,16 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -7674,28 +7659,28 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U75">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7705,24 +7690,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7751,49 +7736,49 @@
         </is>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
         <v>3</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P76">
         <v>3</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U76">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7803,24 +7788,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7849,13 +7834,13 @@
         </is>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -7864,34 +7849,34 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77">
         <v>3</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q77">
         <v>1</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U77">
-        <v>0.3777777777777778</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7901,12 +7886,12 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -7918,7 +7903,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7947,31 +7932,31 @@
         </is>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78">
         <v>3</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -7986,10 +7971,10 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U78">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7999,24 +7984,24 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8054,13 +8039,13 @@
         <v>3</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <v>3</v>
@@ -8069,25 +8054,25 @@
         <v>3</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <v>3</v>
       </c>
       <c r="R79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U79">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -8097,24 +8082,24 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8152,13 +8137,13 @@
         <v>3</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M80">
         <v>3</v>
@@ -8200,19 +8185,19 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8222,7 +8207,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8244,73 +8229,73 @@
         <v>3</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L81">
         <v>3</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S81">
         <v>1</v>
       </c>
       <c r="T81">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="U81">
-        <v>0.3555555555555556</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V81">
         <v>5</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8320,7 +8305,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8351,64 +8336,64 @@
         <v>5</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M82">
         <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P82">
         <v>3</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S82">
         <v>1</v>
       </c>
       <c r="T82">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="U82">
-        <v>0.4888888888888889</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V82">
         <v>5</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8418,7 +8403,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8437,13 +8422,13 @@
         </is>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -8455,31 +8440,31 @@
         <v>5</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S83">
         <v>1</v>
       </c>
       <c r="T83">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U83">
-        <v>0.4666666666666667</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8489,24 +8474,24 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8535,31 +8520,31 @@
         </is>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P84">
         <v>3</v>
@@ -8574,37 +8559,37 @@
         <v>1</v>
       </c>
       <c r="T84">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U84">
-        <v>0.7333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V84">
         <v>5</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8633,31 +8618,31 @@
         </is>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <v>5</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P85">
         <v>3</v>
@@ -8672,37 +8657,37 @@
         <v>1</v>
       </c>
       <c r="T85">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U85">
-        <v>0.7777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V85">
         <v>5</v>
       </c>
       <c r="W85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8731,49 +8716,49 @@
         </is>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
         <v>4</v>
       </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-      <c r="R86">
-        <v>3</v>
-      </c>
       <c r="S86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T86">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U86">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8783,24 +8768,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8829,49 +8814,49 @@
         </is>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="R87">
         <v>4</v>
       </c>
-      <c r="J87">
-        <v>3</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>5</v>
-      </c>
-      <c r="M87">
-        <v>5</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
-      <c r="P87">
-        <v>3</v>
-      </c>
-      <c r="Q87">
-        <v>3</v>
-      </c>
-      <c r="R87">
-        <v>3</v>
-      </c>
       <c r="S87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T87">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U87">
-        <v>0.5777777777777777</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8881,34 +8866,34 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8930,83 +8915,83 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88">
         <v>4</v>
       </c>
-      <c r="J88">
-        <v>3</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>5</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>3</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88">
-        <v>3</v>
-      </c>
       <c r="S88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T88">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U88">
-        <v>0.5777777777777777</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V88">
         <v>5</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -9025,86 +9010,86 @@
         </is>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>5</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N89">
         <v>3</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q89">
         <v>1</v>
       </c>
       <c r="R89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S89">
         <v>3</v>
       </c>
       <c r="T89">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U89">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V89">
         <v>5</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9123,22 +9108,22 @@
         </is>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>5</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>3</v>
@@ -9147,25 +9132,25 @@
         <v>3</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T90">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U90">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -9175,34 +9160,34 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -9221,49 +9206,49 @@
         </is>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
         <v>3</v>
       </c>
       <c r="R91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T91">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="U91">
-        <v>0.6666666666666666</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9273,24 +9258,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9319,13 +9304,13 @@
         </is>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -9337,31 +9322,31 @@
         <v>1</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O92">
         <v>3</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S92">
         <v>3</v>
       </c>
       <c r="T92">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U92">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9371,24 +9356,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9429,16 +9414,16 @@
         <v>5</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O93">
         <v>3</v>
@@ -9447,19 +9432,19 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S93">
         <v>3</v>
       </c>
       <c r="T93">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U93">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -9469,12 +9454,12 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -9486,7 +9471,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9515,49 +9500,49 @@
         </is>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94">
         <v>5</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>3</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>2</v>
       </c>
       <c r="S94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T94">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U94">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -9567,12 +9552,12 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -9584,7 +9569,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9613,16 +9598,16 @@
         </is>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -9637,25 +9622,25 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q95">
         <v>3</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T95">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U95">
-        <v>0.3555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9665,24 +9650,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9711,49 +9696,49 @@
         </is>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96">
         <v>3</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T96">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="U96">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9763,24 +9748,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9809,16 +9794,16 @@
         </is>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -9827,31 +9812,31 @@
         <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O97">
         <v>3</v>
       </c>
       <c r="P97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T97">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U97">
-        <v>0.4</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9861,24 +9846,24 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9907,13 +9892,13 @@
         </is>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -9925,31 +9910,31 @@
         <v>1</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N98">
         <v>3</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q98">
         <v>3</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S98">
         <v>1</v>
       </c>
       <c r="T98">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U98">
-        <v>0.4</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9959,12 +9944,12 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
@@ -9976,7 +9961,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9986,7 +9971,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10005,10 +9990,10 @@
         </is>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I99">
         <v>4</v>
@@ -10023,31 +10008,31 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>3</v>
       </c>
       <c r="R99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
       <c r="T99">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U99">
-        <v>0.4</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -10057,24 +10042,24 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10084,7 +10069,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10103,49 +10088,49 @@
         </is>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>4</v>
       </c>
       <c r="J100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O100">
         <v>3</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S100">
         <v>1</v>
       </c>
       <c r="T100">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U100">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -10155,24 +10140,24 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10182,7 +10167,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10201,16 +10186,16 @@
         </is>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -10219,31 +10204,31 @@
         <v>1</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <v>3</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q101">
         <v>3</v>
       </c>
       <c r="R101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>1</v>
       </c>
       <c r="T101">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U101">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V101">
         <v>5</v>
@@ -10253,24 +10238,24 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10280,7 +10265,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10299,49 +10284,49 @@
         </is>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
         <v>2</v>
       </c>
-      <c r="J102">
-        <v>5</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>3</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
-      </c>
-      <c r="P102">
-        <v>3</v>
-      </c>
-      <c r="Q102">
-        <v>3</v>
-      </c>
-      <c r="R102">
-        <v>3</v>
-      </c>
       <c r="S102">
         <v>1</v>
       </c>
       <c r="T102">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U102">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V102">
         <v>5</v>
@@ -10356,19 +10341,19 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10397,28 +10382,28 @@
         </is>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103">
         <v>5</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O103">
         <v>3</v>
@@ -10427,19 +10412,19 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S103">
         <v>1</v>
       </c>
       <c r="T103">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U103">
-        <v>0.4888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V103">
         <v>5</v>
@@ -10449,24 +10434,24 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10476,7 +10461,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -10495,10 +10480,10 @@
         </is>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>4</v>
@@ -10513,10 +10498,10 @@
         <v>3</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O104">
         <v>3</v>
@@ -10525,19 +10510,19 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S104">
         <v>1</v>
       </c>
       <c r="T104">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U104">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V104">
         <v>5</v>
@@ -10547,24 +10532,24 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10574,7 +10559,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -10593,13 +10578,13 @@
         </is>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>5</v>
@@ -10608,10 +10593,10 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -10632,10 +10617,10 @@
         <v>1</v>
       </c>
       <c r="T105">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U105">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V105">
         <v>5</v>
@@ -10645,24 +10630,24 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10672,7 +10657,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -10691,28 +10676,28 @@
         </is>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O106">
         <v>3</v>
@@ -10730,10 +10715,10 @@
         <v>1</v>
       </c>
       <c r="T106">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U106">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V106">
         <v>5</v>
@@ -10743,24 +10728,24 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10770,7 +10755,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -10789,16 +10774,16 @@
         </is>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -10807,10 +10792,10 @@
         <v>3</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <v>3</v>
@@ -10828,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="T107">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U107">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V107">
         <v>5</v>
@@ -10841,24 +10826,24 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10868,7 +10853,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -10887,13 +10872,13 @@
         </is>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108">
         <v>5</v>
@@ -10902,34 +10887,34 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <v>3</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O108">
         <v>3</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q108">
         <v>1</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S108">
         <v>1</v>
       </c>
       <c r="T108">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U108">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V108">
         <v>5</v>
@@ -10939,24 +10924,24 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -10966,7 +10951,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10985,13 +10970,13 @@
         </is>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11000,13 +10985,13 @@
         <v>1</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M109">
         <v>3</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O109">
         <v>3</v>
@@ -11015,19 +11000,19 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S109">
         <v>1</v>
       </c>
       <c r="T109">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U109">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V109">
         <v>5</v>
@@ -11037,24 +11022,24 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -11064,7 +11049,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -11086,25 +11071,25 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K110">
         <v>1</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O110">
         <v>3</v>
@@ -11113,19 +11098,19 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S110">
         <v>1</v>
       </c>
       <c r="T110">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="U110">
-        <v>0.4222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V110">
         <v>5</v>
@@ -11135,407 +11120,15 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 02</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>3</v>
-      </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
-      <c r="J111">
-        <v>5</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111">
-        <v>3</v>
-      </c>
-      <c r="M111">
-        <v>3</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>3</v>
-      </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-      <c r="Q111">
-        <v>1</v>
-      </c>
-      <c r="R111">
-        <v>1</v>
-      </c>
-      <c r="S111">
-        <v>1</v>
-      </c>
-      <c r="T111">
-        <v>20</v>
-      </c>
-      <c r="U111">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="V111">
-        <v>5</v>
-      </c>
-      <c r="W111">
-        <v>1</v>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>3</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112">
-        <v>5</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-      <c r="M112">
-        <v>3</v>
-      </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-      <c r="R112">
-        <v>1</v>
-      </c>
-      <c r="S112">
-        <v>1</v>
-      </c>
-      <c r="T112">
-        <v>18</v>
-      </c>
-      <c r="U112">
-        <v>0.4</v>
-      </c>
-      <c r="V112">
-        <v>5</v>
-      </c>
-      <c r="W112">
-        <v>1</v>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G113">
-        <v>5</v>
-      </c>
-      <c r="H113">
-        <v>3</v>
-      </c>
-      <c r="I113">
-        <v>4</v>
-      </c>
-      <c r="J113">
-        <v>5</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="M113">
-        <v>3</v>
-      </c>
-      <c r="N113">
-        <v>3</v>
-      </c>
-      <c r="O113">
-        <v>3</v>
-      </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="R113">
-        <v>1</v>
-      </c>
-      <c r="S113">
-        <v>1</v>
-      </c>
-      <c r="T113">
-        <v>22</v>
-      </c>
-      <c r="U113">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V113">
-        <v>5</v>
-      </c>
-      <c r="W113">
-        <v>1</v>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>5</v>
-      </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114">
-        <v>3</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>5</v>
-      </c>
-      <c r="N114">
-        <v>5</v>
-      </c>
-      <c r="O114">
-        <v>3</v>
-      </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <v>1</v>
-      </c>
-      <c r="S114">
-        <v>1</v>
-      </c>
-      <c r="T114">
-        <v>23</v>
-      </c>
-      <c r="U114">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="V114">
-        <v>5</v>
-      </c>
-      <c r="W114">
-        <v>1</v>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z114" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,22 +1522,22 @@
         <v>3</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>5</v>
       </c>
       <c r="T12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U12">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1623,19 +1623,19 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U13">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1721,19 +1721,19 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U14">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -2603,19 +2603,19 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U23">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2892,19 +2892,19 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U26">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2914,12 +2914,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -2990,19 +2990,19 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U27">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3012,12 +3012,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3088,19 +3088,19 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
       <c r="T28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U28">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3186,19 +3186,19 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U29">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3284,19 +3284,19 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>3</v>
       </c>
       <c r="T30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U30">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3379,37 +3379,37 @@
         <v>5</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V31">
         <v>5</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3565,22 +3565,22 @@
         <v>3</v>
       </c>
       <c r="P33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33">
         <v>3</v>
       </c>
       <c r="T33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U33">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3590,12 +3590,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3950,19 +3950,19 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>5</v>
       </c>
       <c r="T37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U37">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3972,12 +3972,12 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4437,22 +4437,22 @@
         <v>5</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>3</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U42">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4467,12 +4467,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4535,22 +4535,22 @@
         <v>5</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U43">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4565,12 +4565,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4636,19 +4636,19 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U44">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4734,19 +4734,19 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U45">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4832,19 +4832,19 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>5</v>
       </c>
       <c r="T46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U46">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4854,12 +4854,12 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5949,7 +5949,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5981,16 +5981,16 @@
         <v>3</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -5999,10 +5999,10 @@
         <v>3</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P58">
         <v>3</v>
@@ -6017,37 +6017,37 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U58">
-        <v>0.5555555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V58">
         <v>5</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6145,7 +6145,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6201,22 +6201,22 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>3</v>
       </c>
       <c r="R60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U60">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6243,7 +6243,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6341,7 +6341,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6372,6 +6372,9 @@
       <c r="G62">
         <v>3</v>
       </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
       <c r="I62">
         <v>3</v>
       </c>
@@ -6385,10 +6388,10 @@
         <v>3</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -6397,19 +6400,19 @@
         <v>3</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U62">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6419,12 +6422,12 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -6436,7 +6439,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6465,19 +6468,16 @@
         </is>
       </c>
       <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>3</v>
@@ -6489,13 +6489,13 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>2</v>
@@ -6504,10 +6504,10 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U63">
-        <v>0.4222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6517,12 +6517,12 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -6534,7 +6534,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6632,7 +6632,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6661,49 +6661,49 @@
         </is>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>3</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U65">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6713,24 +6713,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6771,7 +6771,7 @@
         <v>3</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>3</v>
@@ -6780,28 +6780,28 @@
         <v>3</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U66">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6811,12 +6811,12 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6926,7 +6926,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7065,10 +7065,10 @@
         <v>3</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -7079,20 +7079,23 @@
       <c r="O69">
         <v>3</v>
       </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
       <c r="Q69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U69">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7102,34 +7105,34 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7148,49 +7151,46 @@
         </is>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="U70">
-        <v>0.3555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7200,24 +7200,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7258,7 +7258,7 @@
         <v>5</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <v>3</v>
@@ -7276,19 +7276,19 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U71">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -7298,12 +7298,12 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -7315,7 +7315,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7356,7 +7356,7 @@
         <v>5</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -7368,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U72">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -7413,7 +7413,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7511,7 +7511,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7609,7 +7609,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7641,16 +7641,16 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -7659,28 +7659,28 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P75">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U75">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7690,24 +7690,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7736,13 +7736,13 @@
         </is>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7754,31 +7754,31 @@
         <v>1</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S76">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U76">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7788,24 +7788,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7843,13 +7843,13 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>3</v>
@@ -7858,25 +7858,25 @@
         <v>3</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U77">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7886,24 +7886,24 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7935,13 +7935,13 @@
         <v>3</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>3</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -7971,10 +7971,10 @@
         <v>1</v>
       </c>
       <c r="T78">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U78">
-        <v>0.4444444444444444</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7984,24 +7984,24 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8033,13 +8033,13 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -8048,31 +8048,31 @@
         <v>3</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U79">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -8082,24 +8082,24 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8137,13 +8137,13 @@
         <v>3</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M80">
         <v>3</v>
@@ -8158,19 +8158,19 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S80">
         <v>1</v>
       </c>
       <c r="T80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U80">
-        <v>0.5111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -8180,24 +8180,24 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8235,67 +8235,67 @@
         <v>3</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M81">
         <v>3</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S81">
         <v>1</v>
       </c>
       <c r="T81">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U81">
-        <v>0.7333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V81">
         <v>5</v>
       </c>
       <c r="W81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8339,7 +8339,7 @@
         <v>5</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M82">
         <v>3</v>
@@ -8363,10 +8363,10 @@
         <v>1</v>
       </c>
       <c r="T82">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U82">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8381,19 +8381,19 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8422,31 +8422,31 @@
         </is>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L83">
         <v>5</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P83">
         <v>3</v>
@@ -8461,37 +8461,37 @@
         <v>1</v>
       </c>
       <c r="T83">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U83">
-        <v>0.6222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8589,7 +8589,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8687,7 +8687,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8716,16 +8716,16 @@
         </is>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -8734,31 +8734,31 @@
         <v>5</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86">
         <v>3</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86">
         <v>3</v>
       </c>
       <c r="Q86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U86">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8768,24 +8768,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8883,17 +8883,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -8927,16 +8927,16 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>3</v>
@@ -8948,40 +8948,40 @@
         <v>4</v>
       </c>
       <c r="S88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T88">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U88">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V88">
         <v>5</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9010,28 +9010,28 @@
         </is>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J89">
         <v>5</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O89">
         <v>3</v>
@@ -9040,46 +9040,46 @@
         <v>3</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S89">
         <v>3</v>
       </c>
       <c r="T89">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U89">
-        <v>0.5555555555555556</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V89">
         <v>5</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9177,7 +9177,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9209,25 +9209,25 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91">
         <v>3</v>
@@ -9236,19 +9236,19 @@
         <v>3</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S91">
         <v>3</v>
       </c>
       <c r="T91">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U91">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -9258,24 +9258,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -9307,46 +9307,46 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
         <v>2</v>
       </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>3</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>1</v>
-      </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
       <c r="S92">
         <v>3</v>
       </c>
       <c r="T92">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U92">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -9356,24 +9356,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9471,7 +9471,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9500,13 +9500,13 @@
         </is>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -9521,22 +9521,22 @@
         <v>1</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <v>1</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T94">
         <v>18</v>
@@ -9552,12 +9552,12 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -9569,7 +9569,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9598,13 +9598,13 @@
         </is>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -9628,10 +9628,10 @@
         <v>3</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -9650,24 +9650,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9705,22 +9705,22 @@
         <v>4</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>3</v>
@@ -9735,10 +9735,10 @@
         <v>1</v>
       </c>
       <c r="T96">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="U96">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V96">
         <v>5</v>
@@ -9748,24 +9748,24 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9797,16 +9797,16 @@
         <v>5</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J97">
         <v>3</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -9821,22 +9821,22 @@
         <v>3</v>
       </c>
       <c r="P97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q97">
         <v>3</v>
       </c>
       <c r="R97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S97">
         <v>1</v>
       </c>
       <c r="T97">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U97">
-        <v>0.4888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V97">
         <v>5</v>
@@ -9846,24 +9846,24 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9892,16 +9892,16 @@
         </is>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -9931,10 +9931,10 @@
         <v>1</v>
       </c>
       <c r="T98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U98">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9949,19 +9949,19 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9990,13 +9990,13 @@
         </is>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J99">
         <v>5</v>
@@ -10008,31 +10008,31 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O99">
         <v>3</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q99">
         <v>3</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
       <c r="T99">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U99">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -10042,24 +10042,24 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>5</v>
@@ -10118,19 +10118,19 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S100">
         <v>1</v>
       </c>
       <c r="T100">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U100">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -10140,12 +10140,12 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -10157,7 +10157,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M101">
         <v>5</v>
@@ -10216,19 +10216,19 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S101">
         <v>1</v>
       </c>
       <c r="T101">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U101">
-        <v>0.5111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V101">
         <v>5</v>
@@ -10238,12 +10238,12 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -10255,7 +10255,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H102">
         <v>5</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -10305,7 +10305,7 @@
         <v>5</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O102">
         <v>3</v>
@@ -10314,19 +10314,19 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S102">
         <v>1</v>
       </c>
       <c r="T102">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U102">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V102">
         <v>5</v>
@@ -10336,24 +10336,24 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M103">
         <v>5</v>
@@ -10412,19 +10412,19 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S103">
         <v>1</v>
       </c>
       <c r="T103">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U103">
-        <v>0.6222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V103">
         <v>5</v>
@@ -10434,12 +10434,12 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
@@ -10451,7 +10451,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -10483,13 +10483,13 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -10498,10 +10498,10 @@
         <v>3</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O104">
         <v>3</v>
@@ -10510,19 +10510,19 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S104">
         <v>1</v>
       </c>
       <c r="T104">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U104">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V104">
         <v>5</v>
@@ -10532,24 +10532,24 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -10578,13 +10578,13 @@
         </is>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J105">
         <v>5</v>
@@ -10599,7 +10599,7 @@
         <v>3</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O105">
         <v>3</v>
@@ -10608,19 +10608,19 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S105">
         <v>1</v>
       </c>
       <c r="T105">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U105">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V105">
         <v>5</v>
@@ -10630,24 +10630,24 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10745,7 +10745,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10777,10 +10777,10 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -10813,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="T107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U107">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V107">
         <v>5</v>
@@ -10826,12 +10826,12 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
@@ -10843,7 +10843,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108">
         <v>3</v>
@@ -10911,10 +10911,10 @@
         <v>1</v>
       </c>
       <c r="T108">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U108">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V108">
         <v>5</v>
@@ -10924,12 +10924,12 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
@@ -10941,7 +10941,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="G109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -10991,7 +10991,7 @@
         <v>3</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O109">
         <v>3</v>
@@ -11000,19 +11000,19 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S109">
         <v>1</v>
       </c>
       <c r="T109">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U109">
-        <v>0.5111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="V109">
         <v>5</v>
@@ -11022,113 +11022,211 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>3</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>22</v>
+      </c>
+      <c r="U110">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V110">
+        <v>5</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>5</v>
-      </c>
-      <c r="I110">
-        <v>3</v>
-      </c>
-      <c r="J110">
-        <v>3</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110">
-        <v>5</v>
-      </c>
-      <c r="N110">
-        <v>5</v>
-      </c>
-      <c r="O110">
-        <v>3</v>
-      </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110">
-        <v>3</v>
-      </c>
-      <c r="R110">
-        <v>2</v>
-      </c>
-      <c r="S110">
-        <v>1</v>
-      </c>
-      <c r="T110">
-        <v>24</v>
-      </c>
-      <c r="U110">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V110">
-        <v>5</v>
-      </c>
-      <c r="W110">
-        <v>1</v>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z110" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>3</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>23</v>
+      </c>
+      <c r="U111">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="V111">
+        <v>5</v>
+      </c>
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,13 @@
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>1</v>
       </c>
       <c r="R2">
@@ -551,17 +554,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -604,7 +607,10 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -624,7 +630,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -634,7 +640,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -677,7 +683,10 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
       <c r="R4">
@@ -697,7 +706,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -707,7 +716,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -750,7 +759,10 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
       <c r="R5">
@@ -770,7 +782,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -780,7 +792,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -823,7 +835,10 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
       <c r="R6">
@@ -843,7 +858,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -853,7 +868,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -938,17 +953,17 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>ChannelStability,Flow-SummerBaseFlow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1048,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1043,7 +1058,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1151,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1249,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1332,12 +1347,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1445,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1538,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1533,7 +1548,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1636,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1631,7 +1646,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1719,17 +1734,17 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>ChannelStability,Cover-Wood</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -1817,17 +1832,17 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>ChannelStability,Cover-Wood</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1930,17 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Cover-Wood,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2028,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2023,7 +2038,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2126,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2121,7 +2136,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2224,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2307,17 +2322,17 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2425,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2523,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2601,17 +2616,17 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2704,12 +2719,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2797,17 +2812,17 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2910,17 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2993,17 +3008,17 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3091,17 +3106,17 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -3187,14 +3202,19 @@
       <c r="W30">
         <v>3</v>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>ChannelStability</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -3269,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="T31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U31">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3282,17 +3302,17 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3367,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="T32">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U32">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3380,17 +3400,17 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>3</v>
@@ -3465,10 +3485,10 @@
         <v>3</v>
       </c>
       <c r="T33">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U33">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3478,17 +3498,17 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>3</v>
@@ -3563,25 +3583,30 @@
         <v>3</v>
       </c>
       <c r="T34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U34">
-        <v>0.7111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V34">
         <v>5</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover</t>
+        </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -3656,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="T35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U35">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3667,14 +3692,19 @@
       <c r="W35">
         <v>1</v>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3762,12 +3792,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3855,12 +3885,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3978,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4071,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4134,17 +4164,17 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4267,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4313,15 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
       </c>
       <c r="O42">
         <v>3</v>
       </c>
-      <c r="Q42">
+      <c r="P42">
         <v>1</v>
       </c>
       <c r="R42">
@@ -4308,7 +4341,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4318,7 +4351,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4361,10 +4394,13 @@
       <c r="L43">
         <v>1</v>
       </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
       <c r="O43">
         <v>3</v>
       </c>
-      <c r="Q43">
+      <c r="P43">
         <v>1</v>
       </c>
       <c r="R43">
@@ -4384,7 +4420,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -4394,7 +4430,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4437,10 +4473,13 @@
       <c r="L44">
         <v>1</v>
       </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="Q44">
+      <c r="P44">
         <v>1</v>
       </c>
       <c r="R44">
@@ -4460,7 +4499,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4470,7 +4509,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4511,9 +4550,12 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="P45">
         <v>1</v>
       </c>
       <c r="R45">
@@ -4533,7 +4575,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -4543,7 +4585,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -4618,10 +4660,10 @@
         <v>5</v>
       </c>
       <c r="T46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U46">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4631,17 +4673,17 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -4692,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>3</v>
@@ -4716,10 +4758,10 @@
         <v>3</v>
       </c>
       <c r="T47">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U47">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4729,17 +4771,17 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>3</v>
@@ -4814,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="T48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U48">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -4827,17 +4869,17 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -4912,10 +4954,10 @@
         <v>1</v>
       </c>
       <c r="T49">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U49">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -4925,17 +4967,17 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4986,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>3</v>
@@ -5010,10 +5052,10 @@
         <v>3</v>
       </c>
       <c r="T50">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U50">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5023,17 +5065,17 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5121,17 +5163,17 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -5206,30 +5248,30 @@
         <v>1</v>
       </c>
       <c r="T52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U52">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V52">
         <v>5</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5317,17 +5359,17 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Temperature-Rearing</t>
+          <t>FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5415,17 +5457,17 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5513,17 +5555,17 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>ChannelStability,Stability,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5611,17 +5653,17 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5709,17 +5751,17 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5807,17 +5849,17 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -5905,17 +5947,17 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -6003,17 +6045,17 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>3</v>
@@ -6088,10 +6130,10 @@
         <v>3</v>
       </c>
       <c r="T61">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U61">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6101,17 +6143,17 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>3</v>
@@ -6186,10 +6228,10 @@
         <v>3</v>
       </c>
       <c r="T62">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U62">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6199,17 +6241,17 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>3</v>
@@ -6284,10 +6326,10 @@
         <v>3</v>
       </c>
       <c r="T63">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U63">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6297,17 +6339,17 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>3</v>
@@ -6382,10 +6424,10 @@
         <v>3</v>
       </c>
       <c r="T64">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U64">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6395,17 +6437,17 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>3</v>
@@ -6480,10 +6522,10 @@
         <v>3</v>
       </c>
       <c r="T65">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U65">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6493,17 +6535,17 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6591,17 +6633,17 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6736,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6792,12 +6834,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6885,17 +6927,17 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -6988,12 +7030,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -7086,19 +7128,19 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7127,37 +7169,34 @@
         </is>
       </c>
       <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
         <v>3</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>5</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72">
         <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72">
         <v>2</v>
@@ -7166,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U72">
-        <v>0.4222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7179,24 +7218,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7277,24 +7316,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7323,37 +7362,37 @@
         </is>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>3</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74">
         <v>2</v>
@@ -7362,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U74">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7375,24 +7414,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7433,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -7445,25 +7484,25 @@
         <v>3</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <v>1</v>
       </c>
       <c r="T75">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U75">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V75">
         <v>5</v>
@@ -7473,24 +7512,24 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7571,24 +7610,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7629,10 +7668,10 @@
         <v>3</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>3</v>
@@ -7643,20 +7682,23 @@
       <c r="O77">
         <v>3</v>
       </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
       <c r="Q77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S77">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U77">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7666,34 +7708,39 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7701,38 +7748,52 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="G78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J78">
         <v>3</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S78">
         <v>1</v>
       </c>
+      <c r="T78">
+        <v>27</v>
+      </c>
       <c r="U78">
-        <v>0.1314527406532584</v>
+        <v>0.6</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7742,24 +7803,24 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7795,7 +7856,13 @@
       <c r="L79">
         <v>1</v>
       </c>
-      <c r="Q79">
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
         <v>1</v>
       </c>
       <c r="R79">
@@ -7805,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="U79">
-        <v>0.1929557484494947</v>
+        <v>0.1314527406532584</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -7815,7 +7882,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -7825,14 +7892,14 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7866,9 +7933,9 @@
         <v>5</v>
       </c>
       <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="P80">
         <v>1</v>
       </c>
       <c r="R80">
@@ -7878,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="U80">
-        <v>0.2059092546677536</v>
+        <v>0.1929557484494947</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -7888,7 +7955,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -7898,14 +7965,14 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7939,12 +8006,12 @@
         <v>5</v>
       </c>
       <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="P81">
         <v>1</v>
       </c>
       <c r="R81">
@@ -7954,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="U81">
-        <v>0.2334430075895929</v>
+        <v>0.2059092546677536</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -7964,7 +8031,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -7974,14 +8041,14 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8015,12 +8082,15 @@
         <v>5</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>3</v>
-      </c>
-      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="P82">
         <v>1</v>
       </c>
       <c r="R82">
@@ -8030,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>0.2334430075895929</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -8040,24 +8110,24 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8091,9 +8161,15 @@
         <v>5</v>
       </c>
       <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
         <v>1</v>
       </c>
       <c r="R83">
@@ -8113,24 +8189,24 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8164,12 +8240,12 @@
         <v>5</v>
       </c>
       <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="P84">
         <v>1</v>
       </c>
       <c r="R84">
@@ -8189,7 +8265,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -8199,14 +8275,14 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8240,12 +8316,15 @@
         <v>5</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>5</v>
       </c>
       <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="P85">
         <v>1</v>
       </c>
       <c r="R85">
@@ -8265,24 +8344,24 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8316,9 +8395,15 @@
         <v>5</v>
       </c>
       <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
         <v>1</v>
       </c>
       <c r="R86">
@@ -8338,24 +8423,24 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8365,7 +8450,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -8391,10 +8476,10 @@
       <c r="L87">
         <v>1</v>
       </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="P87">
         <v>1</v>
       </c>
       <c r="R87">
@@ -8404,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="U87">
-        <v>0.05815697795035625</v>
+        <v>0</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8414,7 +8499,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -8424,14 +8509,14 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8462,22 +8547,28 @@
         <v>3</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
-      <c r="Q88">
-        <v>3</v>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S88">
         <v>1</v>
       </c>
       <c r="U88">
-        <v>0.6266179214205709</v>
+        <v>0.05815697795035625</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8487,24 +8578,24 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Riparian</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -8535,22 +8626,25 @@
         <v>3</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
-      <c r="Q89">
-        <v>1</v>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="U89">
-        <v>0.6542803770568443</v>
+        <v>0.6266179214205709</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -8560,24 +8654,24 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>CoarseSubstrate,Cover-Wood,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -8613,10 +8707,10 @@
       <c r="L90">
         <v>1</v>
       </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="P90">
         <v>1</v>
       </c>
       <c r="R90">
@@ -8626,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="U90">
-        <v>0.04599828796958744</v>
+        <v>0.6542803770568443</v>
       </c>
       <c r="V90">
         <v>5</v>
@@ -8636,24 +8730,24 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8684,12 +8778,18 @@
         <v>3</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
-      <c r="Q91">
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91">
         <v>1</v>
       </c>
       <c r="R91">
@@ -8699,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="U91">
-        <v>0.678840842271688</v>
+        <v>0.04599828796958744</v>
       </c>
       <c r="V91">
         <v>5</v>
@@ -8709,24 +8809,24 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -8757,15 +8857,15 @@
         <v>3</v>
       </c>
       <c r="K92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
-      <c r="O92">
-        <v>3</v>
-      </c>
-      <c r="Q92">
+      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="P92">
         <v>1</v>
       </c>
       <c r="R92">
@@ -8775,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="U92">
-        <v>0.6810085762061811</v>
+        <v>0.678840842271688</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -8785,24 +8885,24 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Cover-Wood</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -8838,7 +8938,13 @@
       <c r="L93">
         <v>1</v>
       </c>
-      <c r="Q93">
+      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="P93">
         <v>1</v>
       </c>
       <c r="R93">
@@ -8848,34 +8954,34 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>0.7830164640163568</v>
+        <v>0.6810085762061811</v>
       </c>
       <c r="V93">
         <v>5</v>
       </c>
       <c r="W93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -8911,7 +9017,10 @@
       <c r="L94">
         <v>1</v>
       </c>
-      <c r="Q94">
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="P94">
         <v>1</v>
       </c>
       <c r="R94">
@@ -8921,17 +9030,17 @@
         <v>1</v>
       </c>
       <c r="U94">
-        <v>0.5280329377860712</v>
+        <v>0.7830164640163568</v>
       </c>
       <c r="V94">
         <v>5</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -8941,14 +9050,14 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -8979,12 +9088,15 @@
         <v>3</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
-      <c r="Q95">
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="P95">
         <v>1</v>
       </c>
       <c r="R95">
@@ -8994,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="U95">
-        <v>0.6988250208433527</v>
+        <v>0.5280329377860712</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9004,24 +9116,24 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9057,7 +9169,10 @@
       <c r="L96">
         <v>1</v>
       </c>
-      <c r="Q96">
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="P96">
         <v>1</v>
       </c>
       <c r="R96">
@@ -9067,17 +9182,17 @@
         <v>1</v>
       </c>
       <c r="U96">
-        <v>0.7892917935080431</v>
+        <v>0.6988250208433527</v>
       </c>
       <c r="V96">
         <v>5</v>
       </c>
       <c r="W96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -9087,14 +9202,14 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9104,7 +9219,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -9122,18 +9237,18 @@
         <v>5</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="Q97">
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="P97">
         <v>1</v>
       </c>
       <c r="R97">
@@ -9143,29 +9258,34 @@
         <v>1</v>
       </c>
       <c r="U97">
-        <v>0.2899378298444723</v>
+        <v>0.7892917935080431</v>
       </c>
       <c r="V97">
         <v>5</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9196,15 +9316,18 @@
         <v>1</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L98">
         <v>1</v>
       </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
       <c r="O98">
         <v>1</v>
       </c>
-      <c r="Q98">
+      <c r="P98">
         <v>1</v>
       </c>
       <c r="R98">
@@ -9214,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="U98">
-        <v>0.3922267177160267</v>
+        <v>0.2899378298444723</v>
       </c>
       <c r="V98">
         <v>5</v>
@@ -9224,24 +9347,19 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9260,24 +9378,30 @@
         </is>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
-      <c r="Q99">
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
         <v>1</v>
       </c>
       <c r="R99">
@@ -9287,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="U99">
-        <v>0.512291200709168</v>
+        <v>0.3922267177160267</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -9297,24 +9421,24 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -9333,27 +9457,27 @@
         </is>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="Q100">
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="P100">
         <v>1</v>
       </c>
       <c r="R100">
@@ -9363,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="U100">
-        <v>0.5033511462569658</v>
+        <v>0.512291200709168</v>
       </c>
       <c r="V100">
         <v>5</v>
@@ -9373,19 +9497,24 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -9413,7 +9542,7 @@
         <v>5</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <v>5</v>
@@ -9421,7 +9550,13 @@
       <c r="L101">
         <v>1</v>
       </c>
-      <c r="Q101">
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
         <v>1</v>
       </c>
       <c r="R101">
@@ -9431,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="U101">
-        <v>0.6292740558041172</v>
+        <v>0.5033511462569658</v>
       </c>
       <c r="V101">
         <v>5</v>
@@ -9441,39 +9576,29 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -9481,55 +9606,38 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="G102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L102">
         <v>1</v>
       </c>
       <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P102">
         <v>1</v>
       </c>
-      <c r="Q102">
-        <v>1</v>
-      </c>
       <c r="R102">
         <v>1</v>
       </c>
       <c r="S102">
         <v>1</v>
       </c>
-      <c r="T102">
-        <v>16</v>
-      </c>
       <c r="U102">
-        <v>0.3555555555555556</v>
+        <v>0.6292740558041172</v>
       </c>
       <c r="V102">
         <v>5</v>
@@ -9539,24 +9647,24 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -9597,7 +9705,7 @@
         <v>5</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -9606,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O103">
         <v>3</v>
@@ -9615,19 +9723,19 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S103">
         <v>1</v>
       </c>
       <c r="T103">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U103">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V103">
         <v>5</v>
@@ -9637,24 +9745,24 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,FloodplainConnectivity,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -9695,7 +9803,7 @@
         <v>5</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -9707,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P104">
         <v>1</v>
@@ -9722,10 +9830,10 @@
         <v>1</v>
       </c>
       <c r="T104">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U104">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V104">
         <v>5</v>
@@ -9735,24 +9843,24 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -9833,24 +9941,24 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -9931,24 +10039,24 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -9980,16 +10088,16 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -9998,28 +10106,28 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P107">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S107">
         <v>1</v>
       </c>
       <c r="T107">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U107">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V107">
         <v>5</v>
@@ -10029,24 +10137,24 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10075,13 +10183,13 @@
         </is>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -10093,31 +10201,31 @@
         <v>1</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S108">
         <v>1</v>
       </c>
       <c r="T108">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U108">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V108">
         <v>5</v>
@@ -10127,24 +10235,24 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -10182,13 +10290,13 @@
         <v>3</v>
       </c>
       <c r="J109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M109">
         <v>3</v>
@@ -10197,25 +10305,25 @@
         <v>3</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S109">
         <v>1</v>
       </c>
       <c r="T109">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U109">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V109">
         <v>5</v>
@@ -10225,24 +10333,24 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -10274,28 +10382,28 @@
         <v>3</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K110">
         <v>1</v>
       </c>
       <c r="L110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -10310,10 +10418,10 @@
         <v>1</v>
       </c>
       <c r="T110">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U110">
-        <v>0.4888888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V110">
         <v>5</v>
@@ -10323,24 +10431,24 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -10372,46 +10480,46 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P111">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S111">
         <v>1</v>
       </c>
       <c r="T111">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U111">
-        <v>0.5777777777777777</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V111">
         <v>5</v>
@@ -10421,24 +10529,24 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -10476,13 +10584,13 @@
         <v>3</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M112">
         <v>3</v>
@@ -10497,19 +10605,19 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S112">
         <v>1</v>
       </c>
       <c r="T112">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U112">
-        <v>0.5111111111111111</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V112">
         <v>5</v>
@@ -10519,24 +10627,24 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -10546,7 +10654,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -10574,67 +10682,67 @@
         <v>3</v>
       </c>
       <c r="J113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M113">
         <v>3</v>
       </c>
       <c r="N113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S113">
         <v>1</v>
       </c>
       <c r="T113">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U113">
-        <v>0.7333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V113">
         <v>5</v>
       </c>
       <c r="W113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -10678,7 +10786,7 @@
         <v>5</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M114">
         <v>3</v>
@@ -10702,10 +10810,10 @@
         <v>1</v>
       </c>
       <c r="T114">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U114">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V114">
         <v>5</v>
@@ -10720,19 +10828,19 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -10761,31 +10869,31 @@
         </is>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L115">
         <v>5</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P115">
         <v>3</v>
@@ -10800,37 +10908,37 @@
         <v>1</v>
       </c>
       <c r="T115">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U115">
-        <v>0.6222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V115">
         <v>5</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -10916,19 +11024,19 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -11014,19 +11122,19 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -11055,16 +11163,16 @@
         </is>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -11073,31 +11181,31 @@
         <v>5</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118">
         <v>3</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P118">
         <v>3</v>
       </c>
       <c r="Q118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T118">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U118">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V118">
         <v>5</v>
@@ -11107,24 +11215,24 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>ChannelStability,CoarseSubstrate,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -11210,29 +11318,29 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -11251,19 +11359,19 @@
         </is>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120">
         <v>5</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L120">
         <v>5</v>
@@ -11275,25 +11383,25 @@
         <v>3</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P120">
         <v>3</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T120">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U120">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V120">
         <v>5</v>
@@ -11301,21 +11409,26 @@
       <c r="W120">
         <v>1</v>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-CanopyCover</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -11344,28 +11457,28 @@
         </is>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J121">
         <v>5</v>
       </c>
       <c r="K121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O121">
         <v>3</v>
@@ -11374,41 +11487,46 @@
         <v>3</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S121">
         <v>3</v>
       </c>
       <c r="T121">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U121">
-        <v>0.6444444444444445</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V121">
         <v>5</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+        </is>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -11440,25 +11558,25 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O122">
         <v>3</v>
@@ -11467,19 +11585,19 @@
         <v>3</v>
       </c>
       <c r="Q122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S122">
         <v>3</v>
       </c>
       <c r="T122">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U122">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V122">
         <v>5</v>
@@ -11489,24 +11607,24 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
+          <t>BankStability,Flow-SummerBaseFlow,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -11547,37 +11665,37 @@
         <v>5</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O123">
         <v>3</v>
       </c>
       <c r="P123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q123">
         <v>1</v>
       </c>
       <c r="R123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S123">
         <v>3</v>
       </c>
       <c r="T123">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U123">
-        <v>0.4888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V123">
         <v>5</v>
@@ -11587,24 +11705,24 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,Riparian-Disturbance</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>ChannelStability,Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -11636,19 +11754,19 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K124">
         <v>1</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -11660,22 +11778,22 @@
         <v>3</v>
       </c>
       <c r="P124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S124">
         <v>3</v>
       </c>
       <c r="T124">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U124">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V124">
         <v>5</v>
@@ -11685,24 +11803,24 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -11731,13 +11849,13 @@
         </is>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>3</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125">
         <v>5</v>
@@ -11746,34 +11864,34 @@
         <v>1</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M125">
         <v>1</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q125">
         <v>1</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T125">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U125">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V125">
         <v>5</v>
@@ -11783,24 +11901,24 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel/Side-Channels,Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -11829,13 +11947,13 @@
         </is>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126">
         <v>5</v>
@@ -11844,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -11853,25 +11971,25 @@
         <v>1</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T126">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U126">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="V126">
         <v>5</v>
@@ -11881,24 +11999,24 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>ChannelStability,Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -11927,49 +12045,49 @@
         </is>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>3</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>3</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S127">
         <v>1</v>
       </c>
       <c r="T127">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U127">
-        <v>0.6222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V127">
         <v>5</v>
@@ -11979,24 +12097,24 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality,Riparian-Disturbance,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,ChannelStability,Stability,Off-Channel/Side-Channels,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -12028,28 +12146,28 @@
         <v>5</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P128">
         <v>3</v>
@@ -12064,10 +12182,10 @@
         <v>1</v>
       </c>
       <c r="T128">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U128">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="V128">
         <v>5</v>
@@ -12077,24 +12195,24 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -12123,22 +12241,22 @@
         </is>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M129">
         <v>3</v>
@@ -12162,10 +12280,10 @@
         <v>1</v>
       </c>
       <c r="T129">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U129">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V129">
         <v>5</v>
@@ -12175,24 +12293,24 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -12202,7 +12320,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12221,16 +12339,16 @@
         </is>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -12239,31 +12357,31 @@
         <v>1</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O130">
         <v>3</v>
       </c>
       <c r="P130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q130">
         <v>3</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S130">
         <v>1</v>
       </c>
       <c r="T130">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U130">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V130">
         <v>5</v>
@@ -12273,24 +12391,24 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -12300,7 +12418,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12319,13 +12437,13 @@
         </is>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <v>5</v>
@@ -12334,34 +12452,34 @@
         <v>1</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O131">
         <v>3</v>
       </c>
       <c r="P131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q131">
         <v>3</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S131">
         <v>1</v>
       </c>
       <c r="T131">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U131">
-        <v>0.6</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V131">
         <v>5</v>
@@ -12371,24 +12489,24 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -12469,24 +12587,24 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -12515,28 +12633,28 @@
         </is>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K133">
         <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M133">
         <v>5</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O133">
         <v>3</v>
@@ -12554,10 +12672,10 @@
         <v>1</v>
       </c>
       <c r="T133">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U133">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V133">
         <v>5</v>
@@ -12567,24 +12685,24 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -12613,28 +12731,28 @@
         </is>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H134">
         <v>5</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K134">
         <v>1</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M134">
         <v>5</v>
       </c>
       <c r="N134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O134">
         <v>3</v>
@@ -12652,10 +12770,10 @@
         <v>1</v>
       </c>
       <c r="T134">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="U134">
-        <v>0.6666666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V134">
         <v>5</v>
@@ -12665,24 +12783,24 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>BankStability,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -12692,7 +12810,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -12714,25 +12832,25 @@
         <v>5</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K135">
         <v>1</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O135">
         <v>3</v>
@@ -12750,10 +12868,10 @@
         <v>1</v>
       </c>
       <c r="T135">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U135">
-        <v>0.6</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V135">
         <v>5</v>
@@ -12763,24 +12881,24 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -12790,7 +12908,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12809,28 +12927,28 @@
         </is>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K136">
         <v>1</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O136">
         <v>3</v>
@@ -12839,19 +12957,19 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S136">
         <v>1</v>
       </c>
       <c r="T136">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U136">
-        <v>0.4666666666666667</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V136">
         <v>5</v>
@@ -12861,24 +12979,24 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -12888,7 +13006,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12907,13 +13025,13 @@
         </is>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J137">
         <v>5</v>
@@ -12922,13 +13040,13 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M137">
         <v>3</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O137">
         <v>3</v>
@@ -12937,19 +13055,19 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S137">
         <v>1</v>
       </c>
       <c r="T137">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U137">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V137">
         <v>5</v>
@@ -12959,24 +13077,24 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian-CanopyCover,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+          <t>ChannelStability,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -13008,10 +13126,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>5</v>
@@ -13020,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M138">
         <v>3</v>
@@ -13044,10 +13162,10 @@
         <v>1</v>
       </c>
       <c r="T138">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U138">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V138">
         <v>5</v>
@@ -13057,24 +13175,24 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -13106,10 +13224,10 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139">
         <v>5</v>
@@ -13118,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M139">
         <v>3</v>
@@ -13142,10 +13260,10 @@
         <v>1</v>
       </c>
       <c r="T139">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U139">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V139">
         <v>5</v>
@@ -13155,24 +13273,24 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel/Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -13182,7 +13300,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -13201,13 +13319,13 @@
         </is>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>3</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J140">
         <v>5</v>
@@ -13216,13 +13334,13 @@
         <v>1</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M140">
         <v>3</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O140">
         <v>3</v>
@@ -13231,19 +13349,19 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S140">
         <v>1</v>
       </c>
       <c r="T140">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U140">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V140">
         <v>5</v>
@@ -13253,115 +13371,311 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>BankStability,Cover-Wood,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>ChannelStability,Stability,Flow-SummerBaseFlow,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>Cover-Wood,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>3</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>18</v>
+      </c>
+      <c r="U141">
+        <v>0.4</v>
+      </c>
+      <c r="V141">
+        <v>5</v>
+      </c>
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel/Side-Channels,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>ChannelStability,Stability,FloodplainConnectivity,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>BankStability,ChannelStability,Stability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142">
+        <v>3</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>23</v>
+      </c>
+      <c r="U142">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="V142">
+        <v>5</v>
+      </c>
+      <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>ChannelStability,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>ChannelStability,Cover-Wood,Flow-SummerBaseFlow,FloodplainConnectivity,Off-Channel/Side-Channels,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>5</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
-      <c r="J141">
-        <v>3</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141">
-        <v>5</v>
-      </c>
-      <c r="M141">
-        <v>5</v>
-      </c>
-      <c r="N141">
-        <v>5</v>
-      </c>
-      <c r="O141">
-        <v>3</v>
-      </c>
-      <c r="P141">
-        <v>1</v>
-      </c>
-      <c r="Q141">
-        <v>3</v>
-      </c>
-      <c r="R141">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>5</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143">
+        <v>3</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
         <v>2</v>
       </c>
-      <c r="S141">
-        <v>1</v>
-      </c>
-      <c r="T141">
-        <v>28</v>
-      </c>
-      <c r="U141">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V141">
-        <v>5</v>
-      </c>
-      <c r="W141">
-        <v>1</v>
-      </c>
-      <c r="X141" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y141" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <v>24</v>
+      </c>
+      <c r="U143">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V143">
+        <v>5</v>
+      </c>
+      <c r="W143">
+        <v>1</v>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>BankStability,Cover-Wood,Flow-SummerBaseFlow,Riparian-CanopyCover,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>BankStability,Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian-Disturbance,Riparian-CanopyCover,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
